--- a/scene_cat_exp_2023.2.2_english/input_files/93_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/93_scenecat_block_order.xlsx
@@ -360,17 +360,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>kitchens_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>bedrooms_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>kitchens_1</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -437,27 +437,27 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
